--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdata\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>
@@ -43,6 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,23 +363,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="69.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.54296875"/>
+    <col min="2" max="2" customWidth="true" width="12.90625"/>
+    <col min="3" max="3" customWidth="true" width="26.1796875"/>
+    <col min="4" max="4" customWidth="true" width="69.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B70780A-887B-4A30-A311-92679E24AE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6D0E1-A855-45C0-BD89-F0611F52487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCasesDataEbay" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>
   <si>
     <t>Infinix Hot 50 Factory Unlocked 256GB Internal Memory GSM Cell Phone GR</t>
-  </si>
-  <si>
-    <t>Infinix is the good phone</t>
   </si>
   <si>
     <t>infinix</t>
@@ -355,31 +352,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.54296875"/>
-    <col min="2" max="2" customWidth="true" width="12.90625"/>
-    <col min="3" max="3" customWidth="true" width="26.1796875"/>
-    <col min="4" max="4" customWidth="true" width="69.7265625"/>
+    <col min="1" max="1" customWidth="true" width="8.90625"/>
+    <col min="2" max="2" customWidth="true" width="8.26953125"/>
+    <col min="3" max="3" customWidth="true" width="63.7265625"/>
+    <col min="4" max="4" customWidth="true" width="6.0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="0">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6D0E1-A855-45C0-BD89-F0611F52487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F709DA06-16B1-4FCE-84BA-46BAB8BEE474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>
@@ -40,7 +40,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,20 +359,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.90625"/>
-    <col min="2" max="2" customWidth="true" width="8.26953125"/>
-    <col min="3" max="3" customWidth="true" width="63.7265625"/>
-    <col min="4" max="4" customWidth="true" width="6.0"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" customWidth="1"/>
+    <col min="3" max="3" width="63.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Assignment2-TestNG-Selenium-IndexNo.22550119-MIT4201SoftwareQualityAssurance\src\test\resources\testcasesdata\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>
@@ -40,6 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,20 +360,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
-    <col min="3" max="3" width="63.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="8.90625"/>
+    <col min="2" max="2" customWidth="true" width="8.26953125"/>
+    <col min="3" max="3" customWidth="true" width="63.7265625"/>
+    <col min="4" max="4" customWidth="true" width="6.0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
+++ b/src/test/resources/testcasesdata/TestCasesDataEbay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>Brand</t>
   </si>
